--- a/test.xlsx
+++ b/test.xlsx
@@ -12,33 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
-    <t>ID</t>
+    <t>Идентификатор</t>
   </si>
   <si>
     <t>Описание</t>
   </si>
   <si>
-    <t>Комментарий</t>
+    <t>Единица измерения</t>
   </si>
   <si>
-    <t>Партия</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>тест1</t>
-  </si>
-  <si>
-    <t>тест2</t>
+    <t>icc3</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2</t>
+    <t>icc</t>
+  </si>
+  <si>
+    <t>icc1</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>icc4</t>
+  </si>
+  <si>
+    <t>icc2</t>
   </si>
 </sst>
 </file>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,35 +102,59 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C5" t="s">
+        <v>4</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,36 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Идентификатор</t>
+    <t>ID</t>
   </si>
   <si>
     <t>Описание</t>
   </si>
   <si>
-    <t>Единица измерения</t>
+    <t>Комментарий</t>
   </si>
   <si>
-    <t>icc3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>icc</t>
-  </si>
-  <si>
-    <t>icc1</t>
-  </si>
-  <si>
-    <t>А</t>
-  </si>
-  <si>
-    <t>icc4</t>
-  </si>
-  <si>
-    <t>icc2</t>
+    <t>Партия</t>
   </si>
 </sst>
 </file>
@@ -86,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -102,60 +84,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -24,6 +24,309 @@
   </si>
   <si>
     <t>Партия</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>526</t>
+  </si>
+  <si>
+    <t>527</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>531</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>539</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>545</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>551</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>554</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>556</t>
+  </si>
+  <si>
+    <t>557</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>577</t>
+  </si>
+  <si>
+    <t>578</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>581</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>584</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>586</t>
+  </si>
+  <si>
+    <t>587</t>
+  </si>
+  <si>
+    <t>588</t>
+  </si>
+  <si>
+    <t>589</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>594</t>
   </si>
 </sst>
 </file>
@@ -68,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +391,1406 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
